--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2270.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2270.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.142196522753988</v>
+        <v>1.221991658210754</v>
       </c>
       <c r="B1">
-        <v>2.464544745285081</v>
+        <v>2.693856716156006</v>
       </c>
       <c r="C1">
-        <v>5.34506674255094</v>
+        <v>4.310568809509277</v>
       </c>
       <c r="D1">
-        <v>2.865143236582678</v>
+        <v>2.141778707504272</v>
       </c>
       <c r="E1">
-        <v>1.231309286872719</v>
+        <v>1.159821510314941</v>
       </c>
     </row>
   </sheetData>
